--- a/ja/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
+++ b/ja/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\ja\application_framework\application_framework\web\getting_started\images\project_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C45B02-8E1B-4B18-98A1-DA597EC2D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト検索" sheetId="4" r:id="rId1"/>
@@ -150,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,12 +423,59 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47951</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>29631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F5D4E8-5223-EE8D-C88A-D0BBDC329184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="22593300"/>
+          <a:ext cx="2333951" cy="7563906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -438,7 +491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -517,7 +576,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -530,7 +595,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -560,7 +631,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -590,7 +667,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -620,7 +703,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="円/楕円 6"/>
+          <xdr:cNvPr id="7" name="円/楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -684,7 +773,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -697,7 +792,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+          <xdr:cNvPr id="9" name="直線コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -727,7 +828,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+          <xdr:cNvPr id="10" name="直線コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -757,7 +864,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvPr id="11" name="直線コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -787,7 +900,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="円/楕円 11"/>
+          <xdr:cNvPr id="12" name="円/楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -851,7 +970,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -864,7 +989,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvPr id="14" name="直線コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -894,7 +1025,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+          <xdr:cNvPr id="15" name="直線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -924,7 +1061,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -954,7 +1097,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="円/楕円 16"/>
+          <xdr:cNvPr id="17" name="円/楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1018,7 +1167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1097,7 +1252,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1156,13 +1317,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1175,7 +1342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3486150"/>
+          <a:off x="504825" y="3143250"/>
           <a:ext cx="2581635" cy="1105054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1207,7 +1374,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1256,7 +1429,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1305,7 +1484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1360,7 +1545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1425,7 +1616,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1438,7 +1635,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1470,7 +1673,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+          <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1518,7 +1727,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1573,7 +1788,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1586,7 +1807,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1618,7 +1845,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+          <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1666,7 +1899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1721,7 +1960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1784,7 +2029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1847,7 +2098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1910,7 +2167,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1923,7 +2186,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1955,7 +2224,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2003,7 +2278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2058,7 +2339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2117,7 +2404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Text Box 1"/>
+        <xdr:cNvPr id="2049" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2179,7 +2472,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Text Box 2"/>
+        <xdr:cNvPr id="2050" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2241,7 +2540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Text Box 3"/>
+        <xdr:cNvPr id="2051" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2303,7 +2608,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2316,7 +2627,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="グループ化 48"/>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2329,13 +2646,19 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="41" name="図 40"/>
+            <xdr:cNvPr id="41" name="図 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2358,7 +2681,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvPr id="42" name="正方形/長方形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2400,7 +2729,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+            <xdr:cNvPr id="44" name="正方形/長方形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2442,7 +2777,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+            <xdr:cNvPr id="45" name="正方形/長方形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2514,7 +2855,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvPr id="43" name="正方形/長方形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2618,7 +2965,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="右矢印 47"/>
+          <xdr:cNvPr id="48" name="右矢印 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2694,13 +3047,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2744,7 +3103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2797,7 +3162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvPr id="56" name="右矢印 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2854,7 +3225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2914,7 +3291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2958,204 +3341,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>43966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>77192</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209801" y="22627741"/>
-          <a:ext cx="2466974" cy="6033976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>197964</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="3065"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5248275" y="23793450"/>
-          <a:ext cx="3950814" cy="2790825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2867025" y="28127325"/>
-          <a:ext cx="1162050" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2052" name="直線コネクタ 2051"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="3"/>
-          <a:endCxn id="68" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4029075" y="25188863"/>
-          <a:ext cx="1219200" cy="3176587"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
@@ -3171,7 +3356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3234,7 +3425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3294,7 +3491,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="3"/>
           <a:endCxn id="63" idx="1"/>
@@ -3344,7 +3547,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="63" idx="3"/>
           <a:endCxn id="77" idx="1"/>
@@ -3394,7 +3603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3450,7 +3665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="角丸四角形 76"/>
+        <xdr:cNvPr id="77" name="角丸四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3505,7 +3726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3550,67 +3777,34 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>43966</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2466974" cy="6033976"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209801" y="22627741"/>
-          <a:ext cx="2466974" cy="6033976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867025" y="28127325"/>
-          <a:ext cx="1162050" cy="476250"/>
+          <a:off x="2847975" y="29584650"/>
+          <a:ext cx="847725" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3645,29 +3839,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>146</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="74" idx="3"/>
-          <a:endCxn id="68" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4029075" y="25188863"/>
-          <a:ext cx="1219200" cy="3176587"/>
+          <a:off x="3695700" y="25188863"/>
+          <a:ext cx="1552575" cy="4614862"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3697,258 +3897,255 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>132417</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>1087</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E775A874-6270-462B-ADF8-6A0C1A2336D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="1256" t="69638" r="799" b="624"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="29394149"/>
-          <a:ext cx="2561292" cy="7078163"/>
+          <a:off x="5200650" y="23955375"/>
+          <a:ext cx="2971800" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228850" y="32899350"/>
-          <a:ext cx="676275" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>105933</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="292452"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895724" y="32462358"/>
-          <a:ext cx="752475" cy="292452"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>80709</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>2585</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>15716</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2053" name="直線コネクタ 2052"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2905125" y="32608584"/>
-          <a:ext cx="990599" cy="414591"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>188439</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="グループ化 79">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CA27B0-CC4C-44A3-A656-CB86CF36EB45}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect r="3065"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5238750" y="23793450"/>
-          <a:ext cx="3950814" cy="2790825"/>
+          <a:off x="1000125" y="30813375"/>
+          <a:ext cx="2802935" cy="7730966"/>
+          <a:chOff x="5200650" y="30984825"/>
+          <a:chExt cx="2802935" cy="7730966"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="81" name="図 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD0517A-A91B-5BC7-5B72-8F8063B73D60}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5200650" y="30984825"/>
+            <a:ext cx="2802935" cy="7730966"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="正方形/長方形 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF8B179-70DF-0CB5-422B-4876696A0A2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5534026" y="34585275"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
             <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="テキスト ボックス 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3439EE-0A40-FB1B-6F1C-C301994B9D63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7210424" y="34156650"/>
+            <a:ext cx="752475" cy="292452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="直線コネクタ 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E298EA-96F1-F1E0-E1BF-E5327A1DF55D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="82" idx="3"/>
+            <a:endCxn id="83" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6257926" y="34302876"/>
+            <a:ext cx="952498" cy="425274"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4270,12 +4467,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BO130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171:X213"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -6250,7 +6445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
